--- a/Домашняя работа 2.xlsx
+++ b/Домашняя работа 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbt-s\OneDrive\Рабочий стол\Тестировщик ПО\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbt-s\OneDrive\Рабочий стол\Тестировщик ПО\GITHUB\Homework-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946BD33C-7C56-416A-8D6E-D8190B942892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8DDE1A-5C40-4F0C-A054-54D125C90F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>passed</t>
   </si>
@@ -561,6 +561,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -575,21 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,10 +987,10 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1034,7 +1034,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="13">
         <f>COUNTIF(L$8:L$20,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="13">
@@ -1079,7 +1079,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="14">
         <f>COUNTIF(L$8:L$20,"passed")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="14">
@@ -1206,43 +1206,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="29" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="29" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="36"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="36"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="36"/>
+      <c r="T6" s="29"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1252,29 +1252,29 @@
     </row>
     <row r="7" spans="1:26" ht="107.25" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="38"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="36"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="36"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="36"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="36"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1304,7 +1304,9 @@
       <c r="I8" s="18"/>
       <c r="J8" s="17"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1341,7 +1343,9 @@
       <c r="I9" s="18"/>
       <c r="J9" s="17"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1415,7 +1419,9 @@
       <c r="I11" s="18"/>
       <c r="J11" s="17"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5"/>
       <c r="O11" s="10"/>
@@ -1452,7 +1458,9 @@
       <c r="I12" s="24"/>
       <c r="J12" s="17"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1526,7 +1534,9 @@
       <c r="I14" s="28"/>
       <c r="J14" s="26"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="27"/>
       <c r="O14" s="10"/>
@@ -1560,7 +1570,9 @@
       <c r="I15" s="28"/>
       <c r="J15" s="26"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="27"/>
+      <c r="L15" s="27" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="27"/>
       <c r="O15" s="10"/>
@@ -1597,7 +1609,9 @@
       <c r="I16" s="18"/>
       <c r="J16" s="17"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -1633,7 +1647,9 @@
       <c r="I17" s="18"/>
       <c r="J17" s="17"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="10"/>
@@ -1669,7 +1685,9 @@
       <c r="I18" s="18"/>
       <c r="J18" s="17"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="10"/>
@@ -1705,7 +1723,9 @@
       <c r="I19" s="18"/>
       <c r="J19" s="17"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="5"/>
       <c r="O19" s="10"/>
@@ -1741,7 +1761,9 @@
       <c r="I20" s="18"/>
       <c r="J20" s="17"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="10"/>
@@ -2215,6 +2237,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -2222,12 +2250,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L20 R8:R20 P8:P20 T8:T20 N8:N20" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/Домашняя работа 2.xlsx
+++ b/Домашняя работа 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbt-s\OneDrive\Рабочий стол\Тестировщик ПО\GITHUB\Homework-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8DDE1A-5C40-4F0C-A054-54D125C90F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D30F159-BBDC-40E8-9A5C-29EF5528314C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,6 +561,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -569,27 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,7 +1034,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="13">
         <f>COUNTIF(L$8:L$20,"failed")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="13">
@@ -1079,7 +1079,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="14">
         <f>COUNTIF(L$8:L$20,"passed")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="14">
@@ -1206,43 +1206,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="29"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="29"/>
+      <c r="R6" s="36"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="29"/>
+      <c r="T6" s="36"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1252,29 +1252,29 @@
     </row>
     <row r="7" spans="1:26" ht="107.25" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="29"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="29"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="29"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1762,7 +1762,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="9"/>
       <c r="L20" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="5"/>
@@ -2237,12 +2237,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -2250,6 +2244,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L20 R8:R20 P8:P20 T8:T20 N8:N20" xr:uid="{00000000-0002-0000-0100-000000000000}">
